--- a/Multivariate-Stat-Analysis/hw2/exec5.6a.xlsx
+++ b/Multivariate-Stat-Analysis/hw2/exec5.6a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxuemin\Documents\《多元统计分析》MOOC资料\《应用多元统计分析》（第五版）Excel数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#A我的资料\《应用多元统计分析》（第五版，王学民编著）\《应用多元统计分析》（第五版）Excel数据\《应用多元统计分析》（第五版）Excel数据（变量名为英文字母版）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,31 +15,35 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sheet">Sheet!$A$1:$F$15</definedName>
+    <definedName name="Sheet">Sheet!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>30米跑</t>
+    <t>x1</t>
   </si>
   <si>
-    <t>投掷小球</t>
+    <t>x2</t>
   </si>
   <si>
-    <t>挺举重量</t>
+    <t>x3</t>
   </si>
   <si>
-    <t>抛实心球</t>
+    <t>x4</t>
   </si>
   <si>
-    <t>前抛铅球</t>
+    <t>x5</t>
   </si>
   <si>
-    <t>五级跳</t>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -79,9 +83,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -362,309 +369,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>3.5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>85.3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>75</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>105</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>3.4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>85.4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>75</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>95</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>3.6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>4.3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>85.36</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>75</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>90</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>3.6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>83.7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>75</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>105</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>3.2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>89.35</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>75</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>95</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>20.28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>3.4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>86.28</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>60</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>77.5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>3.6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>4.2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>84.1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>80</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>18.7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>3.1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>98</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>95</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>130</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>22.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>122</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>100</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>115</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>27.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>3.2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>4.3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>92.68</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>80</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>105</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>20.68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>3.1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>4.2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>91.76</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>85</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>100</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>22.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>3.3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>4.2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>98.4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>65</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>100</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>22.86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>3.3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>92</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>80</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>195</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>23.07</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>3.4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>4.3</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>97.36</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>75</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>110</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>22.12</v>
       </c>
     </row>
